--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="523">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,24 +440,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
-    <t>2</t>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -467,80 +464,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>testPathogen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathogen targeted  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestPathogen}
-</t>
-  </si>
-  <si>
-    <t>DDCC Test Pathogen for Observation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>testBrand</t>
-  </si>
-  <si>
-    <t>Test brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCEventBrand}
-</t>
-  </si>
-  <si>
-    <t>DDCC Event Brand for Immunization</t>
-  </si>
-  <si>
-    <t>testManufacturer</t>
-  </si>
-  <si>
-    <t>Test manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestManufacturer}
-</t>
-  </si>
-  <si>
-    <t>DDCC Test Manufacturer for Observation</t>
-  </si>
-  <si>
-    <t>testCentre</t>
-  </si>
-  <si>
-    <t>Test centre or facility name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCTestCentre}
-</t>
-  </si>
-  <si>
-    <t>DDCC Test Centre for Observation</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Test centre country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfEvent}
-</t>
-  </si>
-  <si>
-    <t>DDCC Country Of Event for Immunization</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -548,9 +472,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -724,6 +645,13 @@
 </t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>CE/CNE/CWE</t>
   </si>
   <si>
@@ -809,10 +737,11 @@
     <t>Observation.subject.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -2059,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO79"/>
+  <dimension ref="A1:AO74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3059,11 +2988,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>80</v>
@@ -3086,7 +3015,9 @@
       <c r="L9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>82</v>
@@ -3123,17 +3054,19 @@
         <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3145,66 +3078,66 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="E10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3252,7 +3185,7 @@
         <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3261,69 +3194,67 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3371,7 +3302,7 @@
         <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3380,69 +3311,67 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>82</v>
       </c>
@@ -3490,7 +3419,7 @@
         <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3499,22 +3428,22 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>82</v>
@@ -3523,44 +3452,42 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>82</v>
@@ -3609,7 +3536,7 @@
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3618,22 +3545,22 @@
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>82</v>
@@ -3644,17 +3571,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="D14" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>92</v>
       </c>
@@ -3665,28 +3588,32 @@
         <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>82</v>
@@ -3704,13 +3631,13 @@
         <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>82</v>
@@ -3728,34 +3655,34 @@
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -3763,42 +3690,42 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>82</v>
@@ -3808,7 +3735,7 @@
         <v>82</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>82</v>
@@ -3823,31 +3750,29 @@
         <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3856,10 +3781,10 @@
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>82</v>
@@ -3868,10 +3793,10 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -3880,42 +3805,46 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>82</v>
@@ -3925,7 +3854,7 @@
         <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>82</v>
@@ -3940,13 +3869,13 @@
         <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>82</v>
@@ -3964,7 +3893,7 @@
         <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3973,66 +3902,70 @@
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>82</v>
@@ -4057,13 +3990,11 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>82</v>
@@ -4081,31 +4012,31 @@
         <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
@@ -4114,23 +4045,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>82</v>
@@ -4139,18 +4070,20 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>82</v>
       </c>
@@ -4198,13 +4131,13 @@
         <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>82</v>
@@ -4213,27 +4146,27 @@
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4241,41 +4174,37 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>82</v>
@@ -4293,13 +4222,13 @@
         <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>82</v>
@@ -4317,10 +4246,10 @@
         <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>92</v>
@@ -4329,22 +4258,22 @@
         <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>208</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4352,21 +4281,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4375,20 +4304,18 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4397,7 +4324,7 @@
         <v>82</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>82</v>
@@ -4412,29 +4339,31 @@
         <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4443,10 +4372,10 @@
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>82</v>
@@ -4455,10 +4384,10 @@
         <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4469,11 +4398,9 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4491,23 +4418,21 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>214</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>82</v>
       </c>
@@ -4516,7 +4441,7 @@
         <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>82</v>
@@ -4531,13 +4456,13 @@
         <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>82</v>
@@ -4555,16 +4480,16 @@
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>103</v>
@@ -4576,10 +4501,10 @@
         <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4588,47 +4513,43 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="D22" t="s" s="2">
-        <v>229</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>82</v>
       </c>
@@ -4652,11 +4573,13 @@
         <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>82</v>
@@ -4674,16 +4597,16 @@
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>103</v>
@@ -4695,10 +4618,10 @@
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>134</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4707,9 +4630,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4717,13 +4640,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>82</v>
@@ -4732,20 +4655,18 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>236</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4793,7 +4714,7 @@
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4808,19 +4729,19 @@
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4828,7 +4749,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4848,18 +4769,20 @@
         <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>82</v>
@@ -4908,7 +4831,7 @@
         <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4920,7 +4843,7 @@
         <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>82</v>
@@ -4932,7 +4855,7 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4943,11 +4866,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4963,19 +4886,19 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5013,19 +4936,19 @@
         <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5037,7 +4960,7 @@
         <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>82</v>
@@ -5046,35 +4969,35 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
@@ -5083,18 +5006,20 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>82</v>
       </c>
@@ -5142,7 +5067,7 @@
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5151,47 +5076,49 @@
         <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>134</v>
+        <v>273</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
@@ -5200,18 +5127,20 @@
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5235,13 +5164,13 @@
         <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>82</v>
@@ -5259,7 +5188,7 @@
         <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5274,19 +5203,19 @@
         <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>82</v>
+        <v>286</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5294,7 +5223,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5314,20 +5243,18 @@
         <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>82</v>
@@ -5376,7 +5303,7 @@
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5388,7 +5315,7 @@
         <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>82</v>
@@ -5400,7 +5327,7 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>82</v>
@@ -5411,7 +5338,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5425,26 +5352,24 @@
         <v>92</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>82</v>
@@ -5481,31 +5406,31 @@
         <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>82</v>
@@ -5517,7 +5442,7 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
@@ -5528,7 +5453,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5539,7 +5464,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>82</v>
@@ -5551,16 +5476,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5610,13 +5535,13 @@
         <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>82</v>
@@ -5631,35 +5556,35 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5668,19 +5593,17 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>82</v>
@@ -5729,13 +5652,13 @@
         <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>82</v>
@@ -5744,34 +5667,34 @@
         <v>103</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s" s="2">
         <v>92</v>
@@ -5789,19 +5712,19 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>82</v>
@@ -5838,19 +5761,17 @@
         <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5859,35 +5780,37 @@
         <v>92</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>305</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5899,25 +5822,29 @@
         <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5965,7 +5892,7 @@
         <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5974,35 +5901,37 @@
         <v>92</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>82</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>82</v>
       </c>
@@ -6023,16 +5952,20 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>82</v>
       </c>
@@ -6068,31 +6001,31 @@
         <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>310</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>143</v>
+        <v>330</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>82</v>
@@ -6101,10 +6034,10 @@
         <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6113,11 +6046,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6129,27 +6064,29 @@
         <v>92</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>82</v>
       </c>
@@ -6197,7 +6134,7 @@
         <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6206,10 +6143,10 @@
         <v>92</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>103</v>
+        <v>338</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>82</v>
@@ -6218,13 +6155,13 @@
         <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6232,18 +6169,20 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>81</v>
@@ -6255,17 +6194,19 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>82</v>
@@ -6314,52 +6255,52 @@
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="D37" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>92</v>
@@ -6374,19 +6315,19 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>82</v>
@@ -6423,17 +6364,19 @@
         <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AB37" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AC37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>340</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6442,7 +6385,7 @@
         <v>92</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6451,27 +6394,27 @@
         <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>82</v>
@@ -6493,19 +6436,19 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>82</v>
@@ -6554,7 +6497,7 @@
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6563,7 +6506,7 @@
         <v>92</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>103</v>
@@ -6572,27 +6515,27 @@
         <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>82</v>
@@ -6614,19 +6557,19 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="N39" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>82</v>
@@ -6675,7 +6618,7 @@
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6684,22 +6627,22 @@
         <v>92</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6710,10 +6653,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>82</v>
@@ -6735,19 +6678,19 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>356</v>
+        <v>190</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>357</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>358</v>
+        <v>204</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>359</v>
+        <v>205</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>82</v>
@@ -6772,13 +6715,11 @@
         <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>82</v>
@@ -6796,7 +6737,7 @@
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6805,10 +6746,10 @@
         <v>92</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>82</v>
@@ -6817,10 +6758,10 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>202</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -6829,13 +6770,11 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6847,28 +6786,28 @@
         <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>82</v>
@@ -6893,13 +6832,13 @@
         <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>82</v>
@@ -6917,7 +6856,7 @@
         <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6926,7 +6865,7 @@
         <v>92</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
@@ -6935,28 +6874,26 @@
         <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B42" t="s" s="2">
         <v>364</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6965,7 +6902,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>81</v>
@@ -6974,22 +6911,22 @@
         <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>204</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>205</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>82</v>
@@ -7014,13 +6951,13 @@
         <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>82</v>
@@ -7038,16 +6975,16 @@
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>341</v>
+        <v>200</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>103</v>
@@ -7056,28 +6993,26 @@
         <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>201</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7086,31 +7021,31 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>82</v>
@@ -7159,16 +7094,16 @@
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>103</v>
@@ -7177,28 +7112,26 @@
         <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7210,7 +7143,7 @@
         <v>92</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>82</v>
@@ -7219,20 +7152,18 @@
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7256,13 +7187,13 @@
         <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>82</v>
@@ -7280,7 +7211,7 @@
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7289,37 +7220,35 @@
         <v>92</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>82</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7340,19 +7269,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>226</v>
+        <v>389</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>227</v>
+        <v>390</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>82</v>
@@ -7377,11 +7306,11 @@
         <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>82</v>
@@ -7399,7 +7328,7 @@
         <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>332</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7408,7 +7337,7 @@
         <v>92</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>103</v>
@@ -7420,10 +7349,10 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>223</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>82</v>
@@ -7432,9 +7361,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7448,7 +7377,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7457,20 +7386,18 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>334</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7494,13 +7421,13 @@
         <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>382</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>82</v>
@@ -7518,7 +7445,7 @@
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7454,10 @@
         <v>92</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>82</v>
@@ -7539,10 +7466,10 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7551,9 +7478,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7564,10 +7491,10 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7576,20 +7503,18 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>214</v>
+        <v>403</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>404</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7613,13 +7538,13 @@
         <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>82</v>
@@ -7637,16 +7562,16 @@
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7655,24 +7580,24 @@
         <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>223</v>
+        <v>408</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>224</v>
+        <v>409</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>82</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7686,7 +7611,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7695,19 +7620,19 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>82</v>
@@ -7756,7 +7681,7 @@
         <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -7768,7 +7693,7 @@
         <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>82</v>
@@ -7777,10 +7702,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7791,7 +7716,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7814,17 +7739,15 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>399</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>82</v>
@@ -7849,13 +7772,13 @@
         <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>82</v>
@@ -7873,7 +7796,7 @@
         <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>398</v>
+        <v>226</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7885,44 +7808,44 @@
         <v>82</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>407</v>
+        <v>227</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7931,20 +7854,18 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>229</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>82</v>
       </c>
@@ -7968,11 +7889,13 @@
         <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="X50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Y50" t="s" s="2">
-        <v>414</v>
+        <v>82</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>82</v>
@@ -7990,19 +7913,19 @@
         <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>409</v>
+        <v>232</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>82</v>
@@ -8011,10 +7934,10 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8023,43 +7946,45 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>418</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8107,19 +8032,19 @@
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>422</v>
+        <v>142</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>82</v>
@@ -8131,7 +8056,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>134</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8142,7 +8067,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8165,17 +8090,15 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>82</v>
@@ -8224,7 +8147,7 @@
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8233,7 +8156,7 @@
         <v>92</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>103</v>
@@ -8242,24 +8165,24 @@
         <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>429</v>
+        <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>432</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8270,10 +8193,10 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8282,7 +8205,7 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>435</v>
@@ -8290,12 +8213,8 @@
       <c r="L53" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>438</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8343,19 +8262,19 @@
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>439</v>
+        <v>103</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>82</v>
@@ -8364,10 +8283,10 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8378,7 +8297,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8401,16 +8320,20 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>312</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8434,13 +8357,13 @@
         <v>82</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
+        <v>443</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>82</v>
@@ -8458,7 +8381,7 @@
         <v>82</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>248</v>
+        <v>438</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8470,19 +8393,19 @@
         <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8493,11 +8416,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8516,18 +8439,20 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8551,13 +8476,13 @@
         <v>82</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>82</v>
@@ -8575,7 +8500,7 @@
         <v>82</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>254</v>
+        <v>448</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -8587,19 +8512,19 @@
         <v>82</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>446</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8610,42 +8535,40 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>170</v>
+        <v>459</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>82</v>
@@ -8694,19 +8617,19 @@
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>82</v>
@@ -8718,7 +8641,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>134</v>
+        <v>460</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -8729,7 +8652,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8752,13 +8675,13 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>450</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8809,7 +8732,7 @@
         <v>82</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8818,7 +8741,7 @@
         <v>92</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>103</v>
@@ -8830,10 +8753,10 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8842,9 +8765,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8855,27 +8778,29 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>82</v>
@@ -8924,16 +8849,16 @@
         <v>82</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>103</v>
@@ -8945,10 +8870,10 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -8959,7 +8884,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8982,20 +8907,16 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>461</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9019,13 +8940,13 @@
         <v>82</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>82</v>
@@ -9043,7 +8964,7 @@
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>226</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9055,19 +8976,19 @@
         <v>82</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9078,11 +8999,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -9101,20 +9022,18 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>471</v>
+        <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>472</v>
+        <v>229</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9138,31 +9057,31 @@
         <v>82</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>82</v>
+        <v>199</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>470</v>
+        <v>232</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9174,19 +9093,19 @@
         <v>82</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>467</v>
+        <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>468</v>
+        <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9195,9 +9114,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9211,27 +9130,27 @@
         <v>92</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>478</v>
+        <v>93</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>479</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9279,7 +9198,7 @@
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9288,7 +9207,7 @@
         <v>92</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>103</v>
@@ -9303,7 +9222,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9314,7 +9233,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9334,18 +9253,20 @@
         <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>484</v>
+        <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>82</v>
@@ -9370,13 +9291,13 @@
         <v>82</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>82</v>
@@ -9394,7 +9315,7 @@
         <v>82</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>483</v>
+        <v>245</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9415,10 +9336,10 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>454</v>
+        <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9427,9 +9348,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9440,10 +9361,10 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9452,16 +9373,16 @@
         <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>488</v>
+        <v>149</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>489</v>
+        <v>247</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>490</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>491</v>
+        <v>249</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9511,13 +9432,13 @@
         <v>82</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>487</v>
+        <v>250</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>82</v>
@@ -9532,10 +9453,10 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>493</v>
+        <v>251</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9546,7 +9467,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9566,18 +9487,20 @@
         <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>82</v>
@@ -9626,7 +9549,7 @@
         <v>82</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9638,7 +9561,7 @@
         <v>82</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>82</v>
@@ -9650,7 +9573,7 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9661,11 +9584,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9681,19 +9604,19 @@
         <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>252</v>
+        <v>481</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>169</v>
+        <v>482</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9731,19 +9654,19 @@
         <v>82</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="AC65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>254</v>
+        <v>478</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9755,7 +9678,7 @@
         <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>82</v>
@@ -9764,10 +9687,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>249</v>
+        <v>483</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9778,7 +9701,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9789,7 +9712,7 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
@@ -9801,18 +9724,20 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>412</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>256</v>
+        <v>485</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>486</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>82</v>
       </c>
@@ -9860,16 +9785,16 @@
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>259</v>
+        <v>484</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>103</v>
@@ -9881,10 +9806,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>134</v>
+        <v>490</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -9895,7 +9820,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9915,20 +9840,18 @@
         <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>82</v>
@@ -9953,13 +9876,13 @@
         <v>82</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>82</v>
@@ -9977,7 +9900,7 @@
         <v>82</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -9989,7 +9912,7 @@
         <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>82</v>
@@ -10001,7 +9924,7 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>134</v>
+        <v>227</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10012,18 +9935,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>82</v>
@@ -10032,19 +9955,19 @@
         <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10094,19 +10017,19 @@
         <v>82</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>82</v>
@@ -10118,7 +10041,7 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10129,41 +10052,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>276</v>
+        <v>425</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10211,19 +10136,19 @@
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>278</v>
+        <v>426</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>82</v>
@@ -10246,7 +10171,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10254,10 +10179,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>82</v>
@@ -10269,18 +10194,20 @@
         <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>501</v>
+        <v>312</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>82</v>
       </c>
@@ -10304,13 +10231,13 @@
         <v>82</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>498</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>82</v>
+        <v>499</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>82</v>
@@ -10328,13 +10255,13 @@
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>82</v>
@@ -10346,24 +10273,24 @@
         <v>82</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>492</v>
+        <v>262</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10374,10 +10301,10 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>82</v>
@@ -10386,19 +10313,19 @@
         <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>508</v>
+        <v>314</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>510</v>
+        <v>316</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>82</v>
@@ -10447,13 +10374,13 @@
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>82</v>
@@ -10465,24 +10392,24 @@
         <v>82</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>511</v>
+        <v>321</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>512</v>
+        <v>322</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10505,16 +10432,20 @@
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>312</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>246</v>
+        <v>509</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10538,13 +10469,13 @@
         <v>82</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>360</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>82</v>
@@ -10562,7 +10493,7 @@
         <v>82</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>248</v>
+        <v>508</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10571,10 +10502,10 @@
         <v>92</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>82</v>
+        <v>362</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>82</v>
@@ -10583,10 +10514,10 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10597,11 +10528,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>166</v>
+        <v>513</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10620,18 +10551,20 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>251</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>252</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>82</v>
       </c>
@@ -10655,13 +10588,13 @@
         <v>82</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>82</v>
+        <v>211</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>366</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>82</v>
@@ -10679,7 +10612,7 @@
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>254</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10691,34 +10624,34 @@
         <v>82</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>82</v>
+        <v>517</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>82</v>
+        <v>518</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>249</v>
+        <v>447</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10731,25 +10664,25 @@
         <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>170</v>
+        <v>416</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>82</v>
@@ -10798,7 +10731,7 @@
         <v>82</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10810,7 +10743,7 @@
         <v>82</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>82</v>
@@ -10819,615 +10752,20 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>134</v>
+        <v>419</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO79">
+  <autoFilter ref="A1:AO74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11437,7 +10775,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCObservation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
